--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T11:13:08+00:00</t>
+    <t>2025-09-26T13:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,17 +450,17 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>QuestionnaireResponse.extension:TDDUIAuthor</t>
-  </si>
-  <si>
-    <t>TDDUIAuthor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-auhtor}
+    <t>QuestionnaireResponse.extension:TDDUIResponsible</t>
+  </si>
+  <si>
+    <t>TDDUIResponsible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-responsible}
 </t>
   </si>
   <si>
-    <t>Auteur de l'évaluation</t>
+    <t>Responsable de l'évaluation</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T13:47:48+00:00</t>
+    <t>2025-09-29T08:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:20:50+00:00</t>
+    <t>2025-09-29T14:52:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -590,7 +590,11 @@
 </t>
   </si>
   <si>
-    <t>Form being answered</t>
+    <t>Le profil permet de communiquer les grilles définies suivantes :
+- Evaluation AGGIR PA SSIAD
+- Evaluation AGGIR PH SSIAD
+- Evaluation SERAFIN
+- Evaluation situation SSIAD</t>
   </si>
   <si>
     <t>The Questionnaire that defines and organizes the questions for which answers are being provided.</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T14:52:40+00:00</t>
+    <t>2025-09-29T15:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T15:54:50+00:00</t>
+    <t>2025-10-01T07:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T07:41:07+00:00</t>
+    <t>2025-10-01T07:57:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T09:25:52+00:00</t>
+    <t>2025-10-01T13:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T13:14:57+00:00</t>
+    <t>2025-10-01T16:07:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="439">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:07:51+00:00</t>
+    <t>2025-10-03T13:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -621,24 +621,134 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>QuestionnaireResponse.extension:TDDUIResponsible</t>
-  </si>
-  <si>
-    <t>TDDUIResponsible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-responsible}
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant</t>
+  </si>
+  <si>
+    <t>TDDUIQRParticipant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-qr-participant}
 </t>
   </si>
   <si>
-    <t>Responsable de l'évaluation</t>
+    <t>Responsable et auteur du statut de l'évaluation</t>
+  </si>
+  <si>
+    <t>Extension permettant d'ajouter le responsable de l'évaluation et l'auteur du statut de l'évaluation dans un QuestionnaireResponse.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension.id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.extension:TDDUIResponsible</t>
+  </si>
+  <si>
+    <t>TDDUIResponsible</t>
+  </si>
+  <si>
+    <t>Statut.auteur</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.extension:TDDUIResponsible.id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension.extension.id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.extension:TDDUIResponsible.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.extension:TDDUIResponsible.url</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.extension:TDDUIResponsible.value[x]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.extension:TDDUIStatusAuthor</t>
+  </si>
+  <si>
+    <t>TDDUIStatusAuthor</t>
+  </si>
+  <si>
     <t>Responsable</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.extension:TDDUIStatusAuthor.id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.extension:TDDUIStatusAuthor.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.extension:TDDUIStatusAuthor.url</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.extension:TDDUIStatusAuthor.value[x]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.url</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension.url</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-qr-participant</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension:TDDUIQRParticipant.value[x]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>QuestionnaireResponse.extension:TDDUIAttachment</t>
@@ -779,6 +889,9 @@
     <t>Needed to allow editing of the questionnaire response in a manner that enforces the constraints of the original form.</t>
   </si>
   <si>
+    <t>typeEvaluation</t>
+  </si>
+  <si>
     <t>Event.instantiates</t>
   </si>
   <si>
@@ -788,7 +901,7 @@
     <t>QuestionnaireResponse.status</t>
   </si>
   <si>
-    <t>in-progress | completed | amended | entered-in-error | stopped</t>
+    <t>Correspondance des statuts métier avec les codes FHIR : TERMINE -&gt; in-progress, APPROUVE -&gt; completed, VALIDE -&gt; amended.</t>
   </si>
   <si>
     <t>The position of the questionnaire response within its overall lifecycle.</t>
@@ -809,6 +922,9 @@
     <t>http://hl7.org/fhir/ValueSet/questionnaire-answers-status|4.0.1</t>
   </si>
   <si>
+    <t>Statut</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -816,46 +932,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.status.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.status.extension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.status.extension:TDDUICancelReason</t>
-  </si>
-  <si>
-    <t>TDDUICancelReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-cancel-reason}
-</t>
-  </si>
-  <si>
-    <t>Motif de non-réalisation de l’évènement et de l'évaluation</t>
-  </si>
-  <si>
-    <t>Motif associé au statut de non-réalisation de l’évènement et de l'évaluation.</t>
-  </si>
-  <si>
-    <t>Statut.motifNonRealisation</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.status.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
   </si>
   <si>
     <t>QuestionnaireResponse.subject</t>
@@ -967,10 +1043,6 @@
 ServicePractitionerDepartmentCompanyPerformer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
-</t>
-  </si>
-  <si>
     <t>Person who received and recorded the answers</t>
   </si>
   <si>
@@ -1111,9 +1183,6 @@
     <t>Allows the questionnaire response to be read without access to the questionnaire.</t>
   </si>
   <si>
-    <t>commentaireEvaluation</t>
-  </si>
-  <si>
     <t>.text</t>
   </si>
   <si>
@@ -1182,6 +1251,15 @@
     <t>resultatEvaluation</t>
   </si>
   <si>
+    <t>QuestionnaireResponse.item.answer.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>commentaireEvaluation</t>
+  </si>
+  <si>
     <t>QuestionnaireResponse.item.answer.item</t>
   </si>
   <si>
@@ -1221,33 +1299,39 @@
     <t>QuestionnaireResponse.item.item.linkId</t>
   </si>
   <si>
+    <t>champsEvalue</t>
+  </si>
+  <si>
     <t>QuestionnaireResponse.item.item.definition</t>
   </si>
   <si>
     <t>QuestionnaireResponse.item.item.text</t>
   </si>
   <si>
+    <t>QuestionnaireResponse.item.item.answer</t>
+  </si>
+  <si>
+    <t>resultatChampsEvalue</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.answer.id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.answer.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.answer.modifierExtension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.answer.value[x]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.answer.value[x]:valueString</t>
+  </si>
+  <si>
     <t>commentaire</t>
   </si>
   <si>
-    <t>QuestionnaireResponse.item.item.answer</t>
-  </si>
-  <si>
-    <t>resultatChampsEvalue</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.answer.id</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.answer.extension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.answer.modifierExtension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.answer.value[x]</t>
-  </si>
-  <si>
     <t>QuestionnaireResponse.item.item.answer.item</t>
   </si>
   <si>
@@ -1288,6 +1372,9 @@
   </si>
   <si>
     <t>QuestionnaireResponse.item.item.item.answer.value[x]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.item.answer.value[x]:valueString</t>
   </si>
   <si>
     <t>QuestionnaireResponse.item.item.item.answer.item</t>
@@ -1598,7 +1685,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1607,9 +1694,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="76.28515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="52.62890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.01171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="40.65625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1617,7 +1704,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3622,7 +3709,7 @@
         <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3682,13 +3769,13 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -3705,11 +3792,9 @@
         <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C19" t="s" s="2">
         <v>202</v>
       </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>80</v>
       </c>
@@ -3718,7 +3803,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -3730,13 +3815,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3787,28 +3872,28 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -3816,10 +3901,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3836,7 +3921,7 @@
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>80</v>
@@ -3845,17 +3930,15 @@
         <v>111</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O20" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -3891,19 +3974,19 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3924,7 +4007,7 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -3932,18 +4015,20 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>90</v>
@@ -3955,21 +4040,19 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4017,50 +4100,50 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4069,21 +4152,19 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4131,28 +4212,28 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4160,10 +4241,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4174,7 +4255,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4183,20 +4264,18 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4233,19 +4312,19 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4257,16 +4336,16 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
@@ -4274,14 +4353,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4297,29 +4376,27 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>80</v>
@@ -4361,10 +4438,10 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>90</v>
@@ -4373,16 +4450,16 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -4390,10 +4467,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4401,7 +4478,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -4410,26 +4487,22 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4453,13 +4526,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4477,10 +4550,10 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>90</v>
@@ -4495,23 +4568,25 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4532,13 +4607,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4589,22 +4664,22 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -4618,10 +4693,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4632,7 +4707,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4644,13 +4719,13 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4689,29 +4764,31 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -4720,7 +4797,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -4728,14 +4805,12 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4744,7 +4819,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -4756,13 +4831,13 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4801,16 +4876,16 @@
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>118</v>
@@ -4822,13 +4897,13 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>119</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -4842,10 +4917,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4853,7 +4928,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>90</v>
@@ -4868,22 +4943,24 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>80</v>
@@ -4925,10 +5002,10 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>90</v>
@@ -4946,7 +5023,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -4954,18 +5031,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>90</v>
@@ -4977,23 +5054,19 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5041,7 +5114,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5056,24 +5129,24 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5081,7 +5154,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>90</v>
@@ -5093,29 +5166,27 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>80</v>
@@ -5157,10 +5228,10 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>90</v>
@@ -5169,38 +5240,38 @@
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5209,23 +5280,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5273,7 +5340,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5288,35 +5355,37 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>299</v>
+        <v>190</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="D33" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5325,23 +5394,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>240</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5389,74 +5454,74 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>301</v>
+        <v>194</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>314</v>
+        <v>245</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>315</v>
+        <v>114</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5505,39 +5570,39 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5545,10 +5610,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5557,21 +5622,21 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5619,50 +5684,50 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>325</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>326</v>
+        <v>255</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -5671,19 +5736,21 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5731,28 +5798,28 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -5760,14 +5827,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5783,19 +5850,19 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>112</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5845,7 +5912,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>118</v>
+        <v>265</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5857,16 +5924,16 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -5874,45 +5941,45 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>111</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -5961,28 +6028,28 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -5990,10 +6057,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6010,23 +6077,25 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6051,13 +6120,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6075,7 +6144,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>90</v>
@@ -6090,32 +6159,32 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>90</v>
@@ -6127,22 +6196,22 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6191,7 +6260,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6206,24 +6275,24 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6243,20 +6312,22 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>104</v>
+        <v>306</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6305,7 +6376,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6320,35 +6391,35 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6357,21 +6428,23 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6419,13 +6492,13 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -6434,28 +6507,28 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6471,19 +6544,23 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>105</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6531,7 +6608,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>107</v>
+        <v>326</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6543,38 +6620,38 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>108</v>
+        <v>334</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6583,21 +6660,23 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>112</v>
+        <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>113</v>
+        <v>338</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6645,47 +6724,47 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>118</v>
+        <v>336</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -6694,26 +6773,24 @@
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>111</v>
+        <v>345</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -6761,7 +6838,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6773,7 +6850,7 @@
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>119</v>
+        <v>349</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -6782,7 +6859,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -6790,10 +6867,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6816,20 +6893,16 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>360</v>
+        <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>105</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -6853,29 +6926,31 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>107</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6887,7 +6962,7 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -6896,7 +6971,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>368</v>
+        <v>108</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -6904,23 +6979,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -6932,20 +7005,18 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -6969,13 +7040,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -6993,28 +7064,28 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>118</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>368</v>
+        <v>108</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7022,14 +7093,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7042,23 +7113,25 @@
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>375</v>
+        <v>246</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7107,7 +7180,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7119,7 +7192,7 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7128,7 +7201,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7136,10 +7209,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7147,10 +7220,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7162,17 +7235,17 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>321</v>
+        <v>104</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7221,13 +7294,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -7236,13 +7309,13 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7250,10 +7323,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7276,16 +7349,20 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>105</v>
+        <v>364</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7333,7 +7410,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>107</v>
+        <v>363</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7345,7 +7422,7 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -7354,7 +7431,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>108</v>
+        <v>368</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7362,21 +7439,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7388,18 +7465,18 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>112</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7447,19 +7524,19 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>118</v>
+        <v>369</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -7468,7 +7545,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>108</v>
+        <v>373</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7476,14 +7553,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7496,26 +7573,24 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>111</v>
+        <v>345</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7563,7 +7638,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7575,7 +7650,7 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -7584,7 +7659,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>190</v>
+        <v>378</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -7592,10 +7667,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7603,7 +7678,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>90</v>
@@ -7621,15 +7696,13 @@
         <v>104</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>336</v>
+        <v>106</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -7677,10 +7750,10 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>334</v>
+        <v>107</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>90</v>
@@ -7689,7 +7762,7 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -7698,7 +7771,7 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>338</v>
+        <v>108</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -7706,21 +7779,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -7732,20 +7805,18 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>341</v>
+        <v>113</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -7793,19 +7864,19 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>339</v>
+        <v>118</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -7814,7 +7885,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>344</v>
+        <v>108</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -7822,43 +7893,45 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>348</v>
+        <v>246</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -7907,28 +7980,28 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -7936,10 +8009,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7950,7 +8023,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -7962,18 +8035,20 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -7997,37 +8072,35 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8036,13 +8109,13 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8050,12 +8123,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8076,16 +8151,20 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8109,13 +8188,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8133,7 +8212,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8145,16 +8224,16 @@
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>108</v>
+        <v>391</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8162,21 +8241,23 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="D58" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8188,18 +8269,20 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>112</v>
+        <v>384</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>113</v>
+        <v>385</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8223,13 +8306,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8247,28 +8330,28 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>118</v>
+        <v>382</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>108</v>
+        <v>391</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8276,14 +8359,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8296,25 +8379,23 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>210</v>
+        <v>401</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8363,7 +8444,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8375,7 +8456,7 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
@@ -8384,7 +8465,7 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8392,10 +8473,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8406,7 +8487,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8418,19 +8499,17 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8455,13 +8534,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8479,13 +8558,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -8494,13 +8573,13 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -8508,10 +8587,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8522,7 +8601,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8534,18 +8613,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>373</v>
+        <v>105</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>374</v>
+        <v>106</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>375</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8593,19 +8670,19 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>372</v>
+        <v>107</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -8614,7 +8691,7 @@
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>326</v>
+        <v>108</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -8622,14 +8699,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8648,18 +8725,18 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>321</v>
+        <v>111</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>377</v>
+        <v>112</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8707,7 +8784,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>376</v>
+        <v>118</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8719,16 +8796,16 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>326</v>
+        <v>108</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -8736,42 +8813,46 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>105</v>
+        <v>355</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -8819,19 +8900,19 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>107</v>
+        <v>357</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
@@ -8840,7 +8921,7 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -8848,21 +8929,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -8874,18 +8955,18 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>112</v>
+        <v>359</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -8933,28 +9014,28 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>118</v>
+        <v>358</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>108</v>
+        <v>362</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -8962,45 +9043,45 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>210</v>
+        <v>367</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9049,19 +9130,19 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
@@ -9070,7 +9151,7 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>190</v>
+        <v>368</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9078,10 +9159,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9089,7 +9170,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>90</v>
@@ -9107,14 +9188,14 @@
         <v>104</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9163,10 +9244,10 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>90</v>
@@ -9184,7 +9265,7 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -9192,10 +9273,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9206,7 +9287,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9218,20 +9299,18 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>345</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9279,13 +9358,13 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
@@ -9294,13 +9373,13 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -9308,10 +9387,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9337,15 +9416,13 @@
         <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>346</v>
+        <v>105</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9393,7 +9470,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>345</v>
+        <v>107</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9405,16 +9482,16 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -9422,14 +9499,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9448,16 +9525,16 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>321</v>
+        <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>352</v>
+        <v>112</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>354</v>
+        <v>114</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9507,7 +9584,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>351</v>
+        <v>118</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9519,16 +9596,16 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -9536,42 +9613,46 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>105</v>
+        <v>355</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -9619,19 +9700,19 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>107</v>
+        <v>357</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -9640,7 +9721,7 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -9648,21 +9729,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -9674,18 +9755,20 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>111</v>
+        <v>383</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>112</v>
+        <v>384</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>113</v>
+        <v>385</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -9709,43 +9792,41 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>118</v>
+        <v>382</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -9754,7 +9835,7 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>108</v>
+        <v>391</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -9762,45 +9843,47 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="D72" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>114</v>
+        <v>386</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>210</v>
+        <v>387</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -9825,13 +9908,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -9849,28 +9932,28 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>190</v>
+        <v>391</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -9878,10 +9961,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9892,7 +9975,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -9904,19 +9987,17 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -9941,13 +10022,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -9965,13 +10046,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -9986,7 +10067,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -9994,10 +10075,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10020,17 +10101,17 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10079,7 +10160,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10094,13 +10175,13 @@
         <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -10108,10 +10189,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10122,7 +10203,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -10134,18 +10215,16 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>377</v>
+        <v>105</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>378</v>
+        <v>106</v>
       </c>
       <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>379</v>
-      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10193,30 +10272,1520 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AG75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH75" t="s" s="2">
+      <c r="N81" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
+      <c r="AI81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AK81" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AC85" s="2"/>
+      <c r="AD85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T13:32:59+00:00</t>
+    <t>2025-10-03T14:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T09:55:58+00:00</t>
+    <t>2025-10-06T14:50:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1148,6 +1148,12 @@
     <t>QuestionnaireResponse.item.extension</t>
   </si>
   <si>
+    <t>QuestionnaireResponse.item.extension:TDDUIComment</t>
+  </si>
+  <si>
+    <t>commentaire</t>
+  </si>
+  <si>
     <t>QuestionnaireResponse.item.modifierExtension</t>
   </si>
   <si>
@@ -1285,75 +1291,72 @@
     <t>resultatEvaluation</t>
   </si>
   <si>
-    <t>QuestionnaireResponse.item.answer.value[x]:valueString</t>
+    <t>QuestionnaireResponse.item.answer.item</t>
+  </si>
+  <si>
+    <t>Nested groups and questions</t>
+  </si>
+  <si>
+    <t>Nested groups and/or questions found within this particular answer.</t>
+  </si>
+  <si>
+    <t>It is useful to have "sub-questions", questions which normally appear when certain answers are given and which collect additional details.</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item</t>
+  </si>
+  <si>
+    <t>Nested questionnaire response items</t>
+  </si>
+  <si>
+    <t>Questions or sub-groups nested beneath a question or group.</t>
+  </si>
+  <si>
+    <t>Reports can consist of complex nested groups.</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.extension:TDDUIComment</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.modifierExtension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.linkId</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.definition</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.text</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.answer</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.answer.id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.answer.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.answer.modifierExtension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.answer.value[x]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.item.answer.value[x]:valueString</t>
   </si>
   <si>
     <t>valueString</t>
   </si>
   <si>
-    <t>commentaire</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.answer.item</t>
-  </si>
-  <si>
-    <t>Nested groups and questions</t>
-  </si>
-  <si>
-    <t>Nested groups and/or questions found within this particular answer.</t>
-  </si>
-  <si>
-    <t>It is useful to have "sub-questions", questions which normally appear when certain answers are given and which collect additional details.</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item</t>
-  </si>
-  <si>
-    <t>Nested questionnaire response items</t>
-  </si>
-  <si>
-    <t>Questions or sub-groups nested beneath a question or group.</t>
-  </si>
-  <si>
-    <t>Reports can consist of complex nested groups.</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.id</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.extension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.modifierExtension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.linkId</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.definition</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.text</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.answer</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.answer.id</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.answer.extension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.answer.modifierExtension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.answer.value[x]</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.answer.value[x]:valueString</t>
-  </si>
-  <si>
     <t>QuestionnaireResponse.item.item.answer.item</t>
   </si>
   <si>
@@ -1369,6 +1372,9 @@
     <t>QuestionnaireResponse.item.item.item.extension</t>
   </si>
   <si>
+    <t>QuestionnaireResponse.item.item.item.extension:TDDUIComment</t>
+  </si>
+  <si>
     <t>QuestionnaireResponse.item.item.item.modifierExtension</t>
   </si>
   <si>
@@ -1394,9 +1400,6 @@
   </si>
   <si>
     <t>QuestionnaireResponse.item.item.item.answer.value[x]</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.item.answer.value[x]:valueString</t>
   </si>
   <si>
     <t>QuestionnaireResponse.item.item.item.answer.item</t>
@@ -1707,7 +1710,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:AO90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7264,7 +7267,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7286,14 +7289,12 @@
         <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7330,16 +7331,14 @@
         <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>120</v>
@@ -7366,7 +7365,7 @@
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7377,43 +7376,41 @@
         <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="D49" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7461,7 +7458,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>366</v>
+        <v>120</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7470,7 +7467,7 @@
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>121</v>
@@ -7479,13 +7476,13 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7493,43 +7490,45 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7578,31 +7577,31 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>372</v>
+        <v>192</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -7610,10 +7609,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7621,7 +7620,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>92</v>
@@ -7636,19 +7635,17 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -7697,10 +7694,10 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>92</v>
@@ -7715,13 +7712,13 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -7729,10 +7726,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7755,17 +7752,19 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -7814,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7838,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -7846,10 +7845,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7860,7 +7859,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -7872,18 +7871,18 @@
         <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>353</v>
+        <v>106</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -7931,13 +7930,13 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
@@ -7949,13 +7948,13 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -7963,10 +7962,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7977,7 +7976,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>81</v>
@@ -7989,15 +7988,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>107</v>
+        <v>387</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8046,31 +8047,31 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>109</v>
+        <v>386</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>110</v>
+        <v>391</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8078,21 +8079,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8104,17 +8105,15 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8163,19 +8162,19 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
@@ -8195,14 +8194,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>363</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8215,26 +8214,24 @@
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>113</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>364</v>
+        <v>114</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8282,7 +8279,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>366</v>
+        <v>120</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8306,7 +8303,7 @@
         <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>81</v>
@@ -8314,45 +8311,45 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>394</v>
+        <v>113</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>397</v>
+        <v>116</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8377,41 +8374,43 @@
         <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
@@ -8423,7 +8422,7 @@
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>402</v>
+        <v>192</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>81</v>
@@ -8431,14 +8430,12 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8459,19 +8456,19 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>147</v>
+        <v>396</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8499,28 +8496,26 @@
         <v>159</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8535,7 +8530,7 @@
         <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>81</v>
@@ -8544,7 +8539,7 @@
         <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>81</v>
@@ -8552,13 +8547,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>81</v>
@@ -8580,19 +8575,19 @@
         <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -8620,10 +8615,10 @@
         <v>159</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>81</v>
@@ -8641,7 +8636,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8656,16 +8651,16 @@
         <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>81</v>
@@ -8673,10 +8668,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8702,14 +8697,14 @@
         <v>82</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -8758,7 +8753,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8790,10 +8785,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8819,14 +8814,14 @@
         <v>353</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -8875,7 +8870,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8907,10 +8902,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9022,14 +9017,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9051,14 +9046,12 @@
         <v>113</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9095,16 +9088,14 @@
         <v>81</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>120</v>
@@ -9131,7 +9122,7 @@
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9139,46 +9130,44 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="D64" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9226,7 +9215,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>366</v>
+        <v>120</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9235,13 +9224,13 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>81</v>
@@ -9250,7 +9239,7 @@
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9258,43 +9247,45 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>370</v>
+        <v>254</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9343,22 +9334,22 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>81</v>
@@ -9367,7 +9358,7 @@
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>372</v>
+        <v>192</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -9375,10 +9366,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9386,7 +9377,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>92</v>
@@ -9401,19 +9392,17 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>81</v>
@@ -9462,10 +9451,10 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>92</v>
@@ -9477,7 +9466,7 @@
         <v>104</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>81</v>
@@ -9486,7 +9475,7 @@
         <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>81</v>
@@ -9494,10 +9483,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9520,17 +9509,19 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O67" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -9579,7 +9570,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9603,7 +9594,7 @@
         <v>81</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>81</v>
@@ -9611,10 +9602,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9625,7 +9616,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>81</v>
@@ -9637,18 +9628,18 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>353</v>
+        <v>106</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -9696,13 +9687,13 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>81</v>
@@ -9711,7 +9702,7 @@
         <v>104</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>81</v>
@@ -9720,7 +9711,7 @@
         <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>81</v>
@@ -9728,10 +9719,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9742,7 +9733,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
@@ -9754,15 +9745,17 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>107</v>
+        <v>387</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -9811,22 +9804,22 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>109</v>
+        <v>386</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>81</v>
@@ -9835,7 +9828,7 @@
         <v>81</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>110</v>
+        <v>391</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>81</v>
@@ -9843,21 +9836,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>81</v>
@@ -9869,17 +9862,15 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
@@ -9928,19 +9919,19 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
@@ -9960,14 +9951,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>363</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9980,26 +9971,24 @@
         <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>113</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>364</v>
+        <v>114</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="O71" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10047,7 +10036,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>366</v>
+        <v>120</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10071,7 +10060,7 @@
         <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -10079,45 +10068,45 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>394</v>
+        <v>113</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>397</v>
+        <v>116</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10142,41 +10131,43 @@
         <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AC72" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
@@ -10188,7 +10179,7 @@
         <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>402</v>
+        <v>192</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -10196,14 +10187,12 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>407</v>
-      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10224,19 +10213,19 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>106</v>
+        <v>396</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
@@ -10264,28 +10253,26 @@
         <v>159</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10300,7 +10287,7 @@
         <v>104</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>81</v>
@@ -10309,7 +10296,7 @@
         <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -10317,12 +10304,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="B74" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>81</v>
       </c>
@@ -10331,7 +10320,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
@@ -10343,17 +10332,19 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O74" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -10378,13 +10369,13 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -10402,13 +10393,13 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
@@ -10417,7 +10408,7 @@
         <v>104</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>81</v>
@@ -10426,7 +10417,7 @@
         <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
@@ -10460,17 +10451,17 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10519,7 +10510,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10534,7 +10525,7 @@
         <v>104</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>81</v>
@@ -10551,10 +10542,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10565,7 +10556,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
@@ -10577,16 +10568,18 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>107</v>
+        <v>413</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>108</v>
+        <v>414</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -10634,22 +10627,22 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>109</v>
+        <v>412</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>81</v>
@@ -10658,7 +10651,7 @@
         <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>110</v>
+        <v>359</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -10673,14 +10666,14 @@
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
@@ -10692,17 +10685,15 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
@@ -10751,19 +10742,19 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
@@ -10790,7 +10781,7 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10803,26 +10794,22 @@
         <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>113</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>364</v>
+        <v>194</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -10858,19 +10845,17 @@
         <v>81</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AC78" s="2"/>
       <c r="AD78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>366</v>
+        <v>120</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10894,7 +10879,7 @@
         <v>81</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>81</v>
@@ -10905,15 +10890,17 @@
         <v>435</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>92</v>
@@ -10928,18 +10915,16 @@
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>368</v>
+        <v>248</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -10987,22 +10972,22 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>367</v>
+        <v>120</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>81</v>
@@ -11011,7 +10996,7 @@
         <v>81</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>81</v>
@@ -11026,38 +11011,38 @@
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>376</v>
+        <v>116</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>377</v>
+        <v>254</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -11106,19 +11091,19 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>81</v>
@@ -11130,7 +11115,7 @@
         <v>81</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>378</v>
+        <v>192</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>81</v>
@@ -11149,7 +11134,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>92</v>
@@ -11167,14 +11152,14 @@
         <v>106</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>81</v>
@@ -11223,10 +11208,10 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>92</v>
@@ -11238,7 +11223,7 @@
         <v>104</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>81</v>
@@ -11247,7 +11232,7 @@
         <v>81</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>81</v>
@@ -11269,7 +11254,7 @@
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>81</v>
@@ -11281,18 +11266,20 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>353</v>
+        <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>81</v>
       </c>
@@ -11340,13 +11327,13 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
@@ -11355,7 +11342,7 @@
         <v>104</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>81</v>
@@ -11364,7 +11351,7 @@
         <v>81</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>81</v>
@@ -11401,13 +11388,15 @@
         <v>106</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>108</v>
+        <v>383</v>
       </c>
       <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>81</v>
       </c>
@@ -11455,7 +11444,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>109</v>
+        <v>381</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11467,7 +11456,7 @@
         <v>81</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>81</v>
@@ -11479,7 +11468,7 @@
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>110</v>
+        <v>385</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>81</v>
@@ -11494,7 +11483,7 @@
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11513,16 +11502,16 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>113</v>
+        <v>353</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>114</v>
+        <v>387</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>115</v>
+        <v>388</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>116</v>
+        <v>389</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11572,7 +11561,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>120</v>
+        <v>386</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11584,10 +11573,10 @@
         <v>81</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>81</v>
@@ -11596,7 +11585,7 @@
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>110</v>
+        <v>391</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
@@ -11611,39 +11600,35 @@
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>364</v>
+        <v>107</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>81</v>
       </c>
@@ -11691,19 +11676,19 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>366</v>
+        <v>109</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>81</v>
@@ -11715,7 +11700,7 @@
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -11730,14 +11715,14 @@
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>81</v>
@@ -11749,20 +11734,18 @@
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>394</v>
+        <v>113</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>395</v>
+        <v>114</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>396</v>
+        <v>115</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>81</v>
       </c>
@@ -11786,41 +11769,43 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AC86" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>393</v>
+        <v>120</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>81</v>
@@ -11832,7 +11817,7 @@
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>402</v>
+        <v>110</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -11843,44 +11828,42 @@
         <v>443</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>397</v>
+        <v>116</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>81</v>
@@ -11905,13 +11888,13 @@
         <v>81</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>81</v>
@@ -11929,22 +11912,22 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>81</v>
@@ -11953,7 +11936,7 @@
         <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>402</v>
+        <v>192</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>81</v>
@@ -11975,7 +11958,7 @@
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>81</v>
@@ -11987,17 +11970,19 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O88" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>81</v>
@@ -12022,13 +12007,13 @@
         <v>81</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>81</v>
@@ -12046,13 +12031,13 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>81</v>
@@ -12070,7 +12055,7 @@
         <v>81</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>81</v>
@@ -12107,14 +12092,14 @@
         <v>82</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>81</v>
@@ -12163,7 +12148,7 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12190,6 +12175,123 @@
         <v>359</v>
       </c>
       <c r="AO89" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AO90" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T14:50:01+00:00</t>
+    <t>2025-10-07T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1349,12 +1349,6 @@
   </si>
   <si>
     <t>QuestionnaireResponse.item.item.answer.value[x]</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.item.answer.value[x]:valueString</t>
-  </si>
-  <si>
-    <t>valueString</t>
   </si>
   <si>
     <t>QuestionnaireResponse.item.item.answer.item</t>
@@ -1710,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO90"/>
+  <dimension ref="A1:AO89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10262,14 +10256,16 @@
         <v>81</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AC73" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>395</v>
@@ -10307,11 +10303,9 @@
         <v>428</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>81</v>
       </c>
@@ -10320,7 +10314,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>81</v>
@@ -10332,19 +10326,17 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -10369,13 +10361,13 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -10393,13 +10385,13 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>81</v>
@@ -10408,7 +10400,7 @@
         <v>104</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>81</v>
@@ -10417,7 +10409,7 @@
         <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>81</v>
@@ -10425,10 +10417,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10451,17 +10443,17 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10510,7 +10502,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10525,7 +10517,7 @@
         <v>104</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>81</v>
+        <v>430</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>81</v>
@@ -10556,7 +10548,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>81</v>
@@ -10568,18 +10560,16 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>353</v>
+        <v>106</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>413</v>
+        <v>107</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>414</v>
+        <v>108</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -10627,22 +10617,22 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>412</v>
+        <v>109</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>81</v>
@@ -10651,7 +10641,7 @@
         <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>359</v>
+        <v>110</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -10659,10 +10649,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10673,7 +10663,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
@@ -10685,13 +10675,13 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10730,31 +10720,29 @@
         <v>81</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AC77" s="2"/>
       <c r="AD77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
@@ -10766,7 +10754,7 @@
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
@@ -10774,12 +10762,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>81</v>
       </c>
@@ -10788,7 +10778,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
@@ -10800,13 +10790,13 @@
         <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10845,14 +10835,16 @@
         <v>81</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AC78" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>120</v>
@@ -10864,13 +10856,13 @@
         <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>81</v>
@@ -10887,44 +10879,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>248</v>
+        <v>366</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -10972,7 +10966,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -10981,13 +10975,13 @@
         <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>81</v>
@@ -10996,7 +10990,7 @@
         <v>81</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>81</v>
@@ -11004,45 +10998,43 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -11091,22 +11083,22 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>81</v>
@@ -11115,7 +11107,7 @@
         <v>81</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>192</v>
+        <v>374</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>81</v>
@@ -11123,10 +11115,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11134,7 +11126,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>92</v>
@@ -11149,17 +11141,19 @@
         <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O81" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>81</v>
@@ -11208,10 +11202,10 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>92</v>
@@ -11223,7 +11217,7 @@
         <v>104</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>81</v>
@@ -11232,7 +11226,7 @@
         <v>81</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>81</v>
@@ -11240,10 +11234,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11266,19 +11260,17 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>81</v>
@@ -11327,7 +11319,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11351,7 +11343,7 @@
         <v>81</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>81</v>
@@ -11359,10 +11351,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11373,7 +11365,7 @@
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>81</v>
@@ -11385,18 +11377,18 @@
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>81</v>
       </c>
@@ -11444,13 +11436,13 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>81</v>
@@ -11459,7 +11451,7 @@
         <v>104</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>81</v>
@@ -11468,7 +11460,7 @@
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>81</v>
@@ -11476,10 +11468,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11490,7 +11482,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>81</v>
@@ -11502,17 +11494,15 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>353</v>
+        <v>106</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>387</v>
+        <v>107</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -11561,22 +11551,22 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>386</v>
+        <v>109</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>81</v>
@@ -11585,7 +11575,7 @@
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>391</v>
+        <v>110</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
@@ -11593,21 +11583,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>81</v>
@@ -11619,15 +11609,17 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>81</v>
@@ -11676,19 +11668,19 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>81</v>
@@ -11708,14 +11700,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -11728,24 +11720,26 @@
         <v>81</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>113</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>115</v>
+        <v>367</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="O86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>81</v>
       </c>
@@ -11793,7 +11787,7 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>120</v>
+        <v>368</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -11817,7 +11811,7 @@
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -11825,45 +11819,45 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>113</v>
+        <v>396</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>116</v>
+        <v>399</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>254</v>
+        <v>400</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>81</v>
@@ -11888,13 +11882,13 @@
         <v>81</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>81</v>
@@ -11912,19 +11906,19 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>81</v>
@@ -11936,7 +11930,7 @@
         <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>192</v>
+        <v>404</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>81</v>
@@ -11944,10 +11938,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11958,7 +11952,7 @@
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>81</v>
@@ -11970,19 +11964,17 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>396</v>
+        <v>82</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>81</v>
@@ -12007,13 +11999,13 @@
         <v>81</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>81</v>
@@ -12031,13 +12023,13 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>81</v>
@@ -12055,7 +12047,7 @@
         <v>81</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>81</v>
@@ -12063,10 +12055,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12092,14 +12084,14 @@
         <v>82</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>81</v>
@@ -12148,7 +12140,7 @@
         <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12175,123 +12167,6 @@
         <v>359</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AO90" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T14:18:23+00:00</t>
+    <t>2025-10-07T16:19:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:19:46+00:00</t>
+    <t>2025-10-08T12:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="489">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:42:57+00:00</t>
+    <t>2025-10-08T15:14:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -834,6 +834,156 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.identifier.id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.identifier.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.identifier.value</t>
+  </si>
+  <si>
+    <t>Format d'identifiant à respecter : 3+FINESS/identifiantLocalUsagerESSMS-EVAL-numEvaluation.</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>QuestionnaireResponse.basedOn</t>
@@ -933,9 +1083,6 @@
   </si>
   <si>
     <t>The information on Questionnaire resources  may possibly be gathered during multiple sessions and altered after considered being finished.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Lifecycle status of the questionnaire response.</t>
@@ -1691,7 +1838,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO88"/>
+  <dimension ref="A1:AO96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1719,7 +1866,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -5949,14 +6096,14 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -5965,21 +6112,19 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>266</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6027,19 +6172,19 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>264</v>
+        <v>108</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6048,10 +6193,10 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>271</v>
+        <v>109</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6059,14 +6204,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6082,19 +6227,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>274</v>
+        <v>113</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>276</v>
+        <v>115</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6132,19 +6277,19 @@
         <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6156,7 +6301,7 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6165,10 +6310,10 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6176,18 +6321,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>91</v>
@@ -6196,25 +6341,25 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6239,13 +6384,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6263,7 +6408,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6278,16 +6423,16 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6295,10 +6440,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6306,7 +6451,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>91</v>
@@ -6315,25 +6460,25 @@
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6358,13 +6503,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6382,10 +6527,10 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>91</v>
@@ -6397,35 +6542,35 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -6440,19 +6585,19 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6465,7 +6610,7 @@
         <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>80</v>
@@ -6501,7 +6646,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6516,27 +6661,27 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6559,20 +6704,18 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>313</v>
+        <v>105</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6584,7 +6727,7 @@
         <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>80</v>
@@ -6620,7 +6763,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6635,31 +6778,31 @@
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6678,20 +6821,16 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6739,7 +6878,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6754,31 +6893,31 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6797,20 +6936,18 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6858,7 +6995,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6873,38 +7010,38 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -6916,19 +7053,17 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -6977,13 +7112,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -6992,27 +7127,27 @@
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7020,7 +7155,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7032,19 +7167,19 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7094,7 +7229,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7106,19 +7241,19 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>356</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7126,18 +7261,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>91</v>
@@ -7149,19 +7284,23 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>105</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>106</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7209,7 +7348,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>108</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7221,19 +7360,19 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>109</v>
+        <v>337</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7241,10 +7380,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7252,31 +7391,35 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>193</v>
+        <v>339</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7300,74 +7443,74 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>119</v>
+        <v>338</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>91</v>
@@ -7379,19 +7522,23 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7439,77 +7586,77 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>119</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7558,50 +7705,50 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>191</v>
+        <v>368</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>91</v>
@@ -7613,20 +7760,22 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>105</v>
+        <v>372</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7675,10 +7824,10 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>91</v>
@@ -7690,31 +7839,31 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7730,22 +7879,22 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7794,7 +7943,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7809,27 +7958,27 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7849,20 +7998,22 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -7911,7 +8062,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7926,27 +8077,27 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7954,7 +8105,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -7969,16 +8120,16 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8028,7 +8179,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8040,19 +8191,19 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>404</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8060,10 +8211,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8175,14 +8326,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8204,14 +8355,12 @@
         <v>112</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8248,16 +8397,14 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>119</v>
@@ -8284,7 +8431,7 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8292,46 +8439,44 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D57" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>247</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8379,7 +8524,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>367</v>
+        <v>119</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8388,7 +8533,7 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>120</v>
@@ -8397,13 +8542,13 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8411,45 +8556,45 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>399</v>
+        <v>115</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>400</v>
+        <v>253</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8474,13 +8619,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8498,19 +8643,19 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
@@ -8522,7 +8667,7 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>403</v>
+        <v>191</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -8530,10 +8675,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8541,10 +8686,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8556,17 +8701,17 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8615,13 +8760,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8633,13 +8778,13 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -8647,10 +8792,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8661,7 +8806,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8673,17 +8818,19 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8732,13 +8879,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -8747,7 +8894,7 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -8756,7 +8903,7 @@
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -8764,10 +8911,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8793,13 +8940,15 @@
         <v>105</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>106</v>
+        <v>429</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>107</v>
+        <v>430</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8847,7 +8996,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>108</v>
+        <v>428</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8859,7 +9008,7 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -8871,7 +9020,7 @@
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>109</v>
+        <v>432</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -8879,10 +9028,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8905,15 +9054,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>112</v>
+        <v>400</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>193</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -8950,17 +9101,19 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AC62" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>119</v>
+        <v>433</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8972,19 +9125,19 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -8992,14 +9145,12 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9020,13 +9171,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9077,22 +9228,22 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9101,7 +9252,7 @@
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9109,14 +9260,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>364</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9129,26 +9280,24 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>365</v>
+        <v>113</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>366</v>
+        <v>114</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="O64" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9196,7 +9345,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>367</v>
+        <v>119</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9220,7 +9369,7 @@
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9228,43 +9377,45 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>371</v>
+        <v>253</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9313,22 +9464,22 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
@@ -9337,7 +9488,7 @@
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>373</v>
+        <v>191</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -9345,10 +9496,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9371,19 +9522,19 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>444</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>375</v>
+        <v>445</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9408,13 +9559,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9432,7 +9583,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9456,7 +9607,7 @@
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -9464,10 +9615,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9478,7 +9629,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9490,17 +9641,17 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>381</v>
+        <v>453</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>382</v>
+        <v>454</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>383</v>
+        <v>455</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9549,13 +9700,13 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>380</v>
+        <v>452</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
@@ -9573,7 +9724,7 @@
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -9581,10 +9732,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9607,18 +9758,18 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9666,7 +9817,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9681,7 +9832,7 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -9690,7 +9841,7 @@
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -9698,10 +9849,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9813,14 +9964,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9842,14 +9993,12 @@
         <v>112</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -9886,16 +10035,14 @@
         <v>80</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AC70" s="2"/>
       <c r="AD70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>119</v>
@@ -9922,7 +10069,7 @@
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -9930,46 +10077,44 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D71" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>365</v>
+        <v>247</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10017,7 +10162,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>367</v>
+        <v>119</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10026,13 +10171,13 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10041,7 +10186,7 @@
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10049,45 +10194,45 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>399</v>
+        <v>115</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>400</v>
+        <v>253</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10112,13 +10257,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10136,19 +10281,19 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10160,7 +10305,7 @@
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>403</v>
+        <v>191</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10168,10 +10313,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10179,10 +10324,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10194,17 +10339,17 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10253,13 +10398,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -10268,7 +10413,7 @@
         <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10277,7 +10422,7 @@
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10285,10 +10430,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10299,7 +10444,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10311,17 +10456,19 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>352</v>
+        <v>134</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O74" t="s" s="2">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10370,13 +10517,13 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
@@ -10385,7 +10532,7 @@
         <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -10394,7 +10541,7 @@
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -10402,10 +10549,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10431,13 +10578,15 @@
         <v>105</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>106</v>
+        <v>429</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>107</v>
+        <v>430</v>
       </c>
       <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10485,7 +10634,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>108</v>
+        <v>428</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10497,7 +10646,7 @@
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
@@ -10509,7 +10658,7 @@
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>109</v>
+        <v>432</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -10517,10 +10666,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10543,15 +10692,17 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>112</v>
+        <v>400</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>193</v>
+        <v>434</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10588,17 +10739,19 @@
         <v>80</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AC76" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>119</v>
+        <v>433</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10610,10 +10763,10 @@
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -10622,7 +10775,7 @@
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -10630,14 +10783,12 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>80</v>
       </c>
@@ -10658,13 +10809,13 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10715,22 +10866,22 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
@@ -10739,7 +10890,7 @@
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -10747,14 +10898,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>364</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10767,26 +10918,24 @@
         <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>365</v>
+        <v>113</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>366</v>
+        <v>114</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="O78" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
@@ -10834,7 +10983,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>367</v>
+        <v>119</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10858,7 +11007,7 @@
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -10866,43 +11015,45 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O79" t="s" s="2">
-        <v>371</v>
+        <v>253</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -10951,22 +11102,22 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
@@ -10975,7 +11126,7 @@
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>373</v>
+        <v>191</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -10983,10 +11134,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11009,19 +11160,19 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>134</v>
+        <v>444</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>375</v>
+        <v>445</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11046,13 +11197,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11070,7 +11221,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11094,7 +11245,7 @@
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11102,10 +11253,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11116,7 +11267,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11128,17 +11279,17 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>381</v>
+        <v>453</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>382</v>
+        <v>454</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>383</v>
+        <v>455</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11187,13 +11338,13 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>380</v>
+        <v>452</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
@@ -11211,7 +11362,7 @@
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11219,10 +11370,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11245,18 +11396,18 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
@@ -11304,7 +11455,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11319,7 +11470,7 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>390</v>
+        <v>474</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -11328,7 +11479,7 @@
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -11336,10 +11487,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11451,14 +11602,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11480,14 +11631,12 @@
         <v>112</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -11524,16 +11673,14 @@
         <v>80</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AC84" s="2"/>
       <c r="AD84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>119</v>
@@ -11560,7 +11707,7 @@
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -11568,46 +11715,44 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D85" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>365</v>
+        <v>247</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -11655,7 +11800,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>367</v>
+        <v>119</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11664,13 +11809,13 @@
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>80</v>
@@ -11679,7 +11824,7 @@
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -11687,45 +11832,45 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>399</v>
+        <v>115</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>400</v>
+        <v>253</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -11750,13 +11895,13 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>80</v>
@@ -11774,19 +11919,19 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -11798,7 +11943,7 @@
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>403</v>
+        <v>191</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -11806,10 +11951,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11817,10 +11962,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -11832,17 +11977,17 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -11891,13 +12036,13 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
@@ -11906,7 +12051,7 @@
         <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
@@ -11915,7 +12060,7 @@
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -11923,10 +12068,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11937,7 +12082,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -11949,17 +12094,19 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O88" t="s" s="2">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12008,13 +12155,13 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
@@ -12032,9 +12179,947 @@
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="AO88" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AO96" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T15:14:16+00:00</t>
+    <t>2025-10-13T13:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -815,7 +815,7 @@
 </t>
   </si>
   <si>
-    <t>Unique id for this set of answers</t>
+    <t>Identifiant de l'évaluation</t>
   </si>
   <si>
     <t>A business identifier assigned to a particular completed (or partially completed) questionnaire.</t>
@@ -927,7 +927,7 @@
     <t>QuestionnaireResponse.identifier.value</t>
   </si>
   <si>
-    <t>Format d'identifiant à respecter : 3+FINESS/identifiantLocalUsagerESSMS-EVAL-numEvaluation.</t>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T13:31:44+00:00</t>
+    <t>2025-10-15T11:45:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T11:45:31+00:00</t>
+    <t>2025-10-15T11:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T11:51:21+00:00</t>
+    <t>2025-10-15T15:04:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:22+00:00</t>
+    <t>2025-10-16T14:47:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -767,7 +767,7 @@
     <t>Pièce jointe</t>
   </si>
   <si>
-    <t>Pièces jointes.</t>
+    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t>pieceJointeEvaluation</t>
@@ -786,7 +786,11 @@
     <t>Commentaire</t>
   </si>
   <si>
-    <t>Commentaire relatif au séjour, évènements et évaluations.</t>
+    <t xml:space="preserve">
+- **Séjour** : commentaire relatif au séjour.
+- **Événement** : commentaires sur le déroulé de l’évènement.
+- **Évaluation** : commentaire libre sur le contenu ou le résultat de l’évaluation.
+- **Champ évalué** : commentaire spécifique à un item ou sous-item évalué.</t>
   </si>
   <si>
     <t>commentaireEvaluation</t>
